--- a/Tablolar/Lıbrary_System.xlsx
+++ b/Tablolar/Lıbrary_System.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furka\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\library project with sql\-Library-Project-with-Sql\Tablolar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E15B8FC-E673-413D-BB00-23B3D2EE5A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A05146-6D8D-4F31-BCDF-D63D66D12B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{82154EE2-964D-4847-A75C-0D1A937EE08F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{82154EE2-964D-4847-A75C-0D1A937EE08F}"/>
   </bookViews>
   <sheets>
     <sheet name="AUTHORS" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -78,9 +78,6 @@
     <t>AUTHORS</t>
   </si>
   <si>
-    <t>IDENTITY</t>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>CATEGORY</t>
   </si>
   <si>
-    <t>INDENTITY</t>
-  </si>
-  <si>
     <t>nvarchar(50)</t>
   </si>
   <si>
@@ -159,9 +153,6 @@
     <t>CREATE_DATE</t>
   </si>
   <si>
-    <t>IDENTIY</t>
-  </si>
-  <si>
     <t>LIBRARY_USER_BOOKS</t>
   </si>
   <si>
@@ -196,6 +187,42 @@
   </si>
   <si>
     <t>DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int IDENTITY(1,1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> image</t>
+  </si>
+  <si>
+    <t>int IDENTITY(1,1)</t>
+  </si>
+  <si>
+    <t>CONSTRAINT BOOKS PRIMARY KEY CLUSTERED</t>
+  </si>
+  <si>
+    <t>CONSTRAINT MEMBERS PRIMARY KEY CLUSTERED</t>
+  </si>
+  <si>
+    <t>CONSTRAINT PUBLISHING_HOUSE PRIMARY KEY CLUSTERED</t>
+  </si>
+  <si>
+    <t>CONSTRAINT LIBRARY_USER_BOOKS PRIMARY KEY CLUSTERED (ID ASC))</t>
+  </si>
+  <si>
+    <t>CONSTRAINT LIBRARY_WORKER PRIMARY KEY CLUSTERED  (ID ASC))</t>
+  </si>
+  <si>
+    <t>CONSTRAINT LIBRARY_USER_BOOKS PRIMARY KEY CLUSTERED   (ID ASC))</t>
+  </si>
+  <si>
+    <t>CONSTRAINT CATEGORY PRIMARY KEY CLUSTERED  (ID ASC))</t>
+  </si>
+  <si>
+    <t>CONSTRAINT LIBRARY_NAME PRIMARY KEY CLUSTERED  (ID ASC))</t>
   </si>
 </sst>
 </file>
@@ -239,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -262,25 +289,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,125 +666,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A62E90-1069-4B1C-9C08-E8F0E9F4D157}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" t="str">
+        <f>"CREATE TABLE "&amp;A1&amp;"("</f>
+        <v>CREATE TABLE AUTHORS(</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D2" t="str">
+        <f>A2&amp;" "&amp;B2&amp;","</f>
+        <v>ID int IDENTITY(1,1) ,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D11" si="0">A3&amp;" "&amp;B3&amp;","</f>
+        <v>IMAGE  image,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>NAME nvachar(50),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>SURNAME nvachar(50),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>COUNTRY nvachar(50),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>BIOGRAPY text,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>BIRTDATE date,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>DATEOF_DEATH date,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>BIRTPLACE nvachar(50),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2"/>
+      <c r="D11" t="str">
+        <f>A11&amp;" "&amp;B11&amp;""</f>
+        <v>EXPLAIN text</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -726,114 +840,164 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C935A87-18CB-40A4-9F84-870CDDC68D67}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" t="str">
+        <f>"CREATE TABLE " &amp;A1&amp;"("</f>
+        <v>CREATE TABLE LIBRARY_WORKER(</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D11" si="0">A2&amp;" "&amp;B2&amp;","</f>
+        <v>ID int IDENTITY(1,1),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>LIBRARY_ID int,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>IMAGE image,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>NAME nvarchar(50),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>SURNAME nvarchar(50),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>BIRTDATE date,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>IDENTIFICATION_NUMBER nvarchar(50),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>EMAIL nvarchar(50),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>PHONE nvarchar(50),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2"/>
+      <c r="D11" t="str">
+        <f>A11&amp;" "&amp;B11&amp;""</f>
+        <v>CITY nvarchar(50)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -845,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BE174A-8C07-429C-BC86-53346186EC17}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,59 +1021,88 @@
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" t="str">
+        <f>"CREATE TABLE "&amp;A1&amp;"( "</f>
+        <v xml:space="preserve">CREATE TABLE LIBRARY_USER_BOOKS( </v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D2" t="str">
+        <f>A2&amp;" "&amp;B2&amp;","</f>
+        <v>ID int IDENTITY(1,1),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D6" si="0">A3&amp;" "&amp;B3&amp;","</f>
+        <v>BOOK_ID int,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>USER_ID int,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>TAKING_DATE date,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2"/>
+      <c r="D6" t="str">
+        <f>A6&amp;" "&amp;B6&amp;""</f>
+        <v>GIVING_DATE date</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -921,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2020B11C-C176-42D2-B5FA-A9627AAE3F30}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D1" sqref="D1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,43 +1125,65 @@
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" t="str">
+        <f>"CREATE TABLE "&amp;A1&amp;"("</f>
+        <v>CREATE TABLE CATEGORY(</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D2" t="str">
+        <f>A2&amp;" "&amp;B2&amp;","</f>
+        <v>ID int IDENTITY(1,1),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D4" si="0">A3&amp;" "&amp;B3&amp;","</f>
+        <v>CATEGORY nvarchar(50),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2"/>
+      <c r="D4" t="str">
+        <f>A4&amp;" "&amp;B4&amp;""</f>
+        <v>EXPLAIN text</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -980,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0AE17A-ABF6-4173-A299-CDA032A9FA5F}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D1" sqref="D1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,104 +1208,153 @@
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" t="str">
+        <f>"CREATE TABLE "&amp;A1&amp;"("</f>
+        <v>CREATE TABLE LIBRARY_NAME(</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="str">
+        <f>A2&amp;" "&amp;B2&amp;","</f>
+        <v>ID int IDENTITY(1,1),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D4" si="0">A3&amp;" "&amp;B3&amp;","</f>
+        <v>LIBRARY_NAME nvarchar(50),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="str">
+        <f>A4&amp;" "&amp;B4&amp;""</f>
+        <v>CITY nvarchar(50)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="str">
+        <f t="shared" ref="D5:D11" si="1">A5&amp;" "&amp;B5&amp;""</f>
+        <v>DISTRICT nvarchar(50)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>ADRESS nvarchar(50)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>PHONE nvarchar(50)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>EMAIL nvarchar(50)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE_DATE date</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>DELETE_DATE date</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>15</v>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C11" s="2"/>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE_DATE date</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1102,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA6B5BE-03B9-491C-B153-498E52F7400B}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D1" sqref="D1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,122 +1378,179 @@
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="str">
+        <f>"CREATE TABLE "&amp;A1&amp;"("</f>
+        <v>CREATE TABLE BOOKS(</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D2" t="str">
+        <f>A2&amp;" "&amp;B2&amp;","</f>
+        <v>ID int IDENTITY(1,1),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D4" si="0">A3&amp;" "&amp;B3&amp;","</f>
+        <v>NAME nvachar(50),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="str">
+        <f>A4&amp;" "&amp;B4&amp;""</f>
+        <v>AUTHOR nvachar(50)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="str">
+        <f t="shared" ref="D5:D13" si="1">A5&amp;" "&amp;B5&amp;""</f>
+        <v>BOOK_PRINTING_DATE date</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>CATEGORY_ID int</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>CITY nvachar(50)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>DISTRICT nvachar(50)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>LIBRARY_ID int</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>AUTHOR_ID int</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>AMOUNT tintiny</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>PUBLISHING_HOUSE_ID int</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>13</v>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C13" s="2"/>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>EXPLAIN nvachar(50)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1241,137 +1562,190 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A3F880-6A1F-4A94-819A-0777A51419B8}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" t="str">
+        <f>"CREATE TABLE "&amp;A1&amp;"("</f>
+        <v>CREATE TABLE MEMBERS(</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="str">
+        <f>B2&amp;" "&amp;C2&amp;","</f>
+        <v>int IDENTITY(1,1)  ,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E4" si="0">B3&amp;" "&amp;C3&amp;","</f>
+        <v>image ,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="str">
+        <f>B4&amp;" "&amp;C4&amp;""</f>
+        <v xml:space="preserve">nvarchar(50) </v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="str">
+        <f t="shared" ref="E5:E12" si="1">B5&amp;" "&amp;C5&amp;""</f>
+        <v xml:space="preserve">nvarchar(50) </v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">date </v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">nvarchar(11) </v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">nvarchar(50) </v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">nvarchar(50) </v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">int </v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">nvarchar(50) </v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">nvarchar(50) </v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1383,115 +1757,154 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561F99F5-75E0-4059-8EC4-6D05AF23B2F6}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" t="str">
+        <f>"CREATE TABLE "&amp;A1&amp;"("</f>
+        <v>CREATE TABLE PUBLISHING_HOUSE(</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="str">
+        <f>A2&amp;" "&amp;B2&amp;""</f>
+        <v>ID int IDENTITY(1,1)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="str">
+        <f>A3&amp;" "&amp;B3&amp;""</f>
+        <v>NAME nvarchar(50)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F9" si="0">A4&amp;" "&amp;B4&amp;""</f>
+        <v>ADRES nvarchar(50)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>CITY nvarchar(50)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>DISTRICT nvarchar(50)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>PHONE nvarchar(50)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>DATE date</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>EXPLAIN text</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
